--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Treasure\PKU\auditory experiment by psychopy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B7FB77-E782-49CE-935B-85654B08238C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="113_{6BC8F2CC-8E87-4AD8-8953-CE8D03225418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10640" xr2:uid="{35DD5206-D798-491A-B793-3D7E1DB02CA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,25 +20,382 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>sound1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="120">
+  <si>
+    <t>my_sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sound2</t>
+    <t>left_word</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sounds\01_i.wav</t>
-  </si>
-  <si>
-    <t>sounds\02_u.wav</t>
+    <t>right_word</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sounds\03_y.wav</t>
+    <t>correct_ans</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds\ba_0d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\ba_0d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\ba_0d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\ba_0d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\ba_0d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\ba_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d1.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d2.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d3.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d4.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_1d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\bae_2d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d1.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d2.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d3.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d4.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_1d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\bai_2d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\bao_0d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\bao_0d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\bao_0d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\bao_0d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\bao_0d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\bao_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d1.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d2.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d3.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d4.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_1d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\ge_2d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\guo_0d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\guo_0d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\guo_0d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\guo_0d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\guo_0d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\guo_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\jiao_0d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\jiao_0d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\jiao_0d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\jiao_0d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\jiao_0d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\jiao_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d1.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d2.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d3.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d4.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_1d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\ju_2d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\kua_0d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\kua_0d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\kua_0d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\kua_0d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\kua_0d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\kua_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d1.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d2.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d3.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d4.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_1d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\kuo_2d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\ya_0d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\ya_0d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\ya_0d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\ya_0d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\ya_0d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\ya_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d0.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d1.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d2.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d3.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d4.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d5.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d6.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d7.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d8.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_1d9.wav</t>
+  </si>
+  <si>
+    <t>sounds\yao_2d0.wav</t>
+  </si>
+  <si>
+    <t>坝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
@@ -54,15 +406,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,13 +436,12 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -109,7 +461,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -125,7 +477,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +489,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -154,7 +506,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -184,29 +536,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -236,23 +571,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,54 +722,1464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E0B33-26FB-41BB-8522-5A26D258C4FC}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="4" width="9.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>